--- a/src/test/resources/ExcelFiles/TestDocument.xlsx
+++ b/src/test/resources/ExcelFiles/TestDocument.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9378EE38-D97D-4910-8DCB-652B7E9F7B2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C17EE29-43BE-4620-8540-3C6B6BD7376A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="FiloExample" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="6" r:id="rId2"/>
     <sheet name="Cookie" sheetId="3" r:id="rId3"/>
     <sheet name="TestScripts" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="7" r:id="rId5"/>
+    <sheet name="TestNGxml" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
   <si>
     <t>Deepak</t>
   </si>
@@ -41,118 +42,157 @@
     <t>String</t>
   </si>
   <si>
-    <t>Boolean</t>
-  </si>
-  <si>
     <t>Number</t>
   </si>
   <si>
-    <t>Double</t>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Domain</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Expiry</t>
+  </si>
+  <si>
+    <t>IsSecure</t>
+  </si>
+  <si>
+    <t>IsHttp</t>
+  </si>
+  <si>
+    <t>ci_session</t>
+  </si>
+  <si>
+    <t>890e9321fded1e1934ef58e36f769715460dd500</t>
+  </si>
+  <si>
+    <t>www.taggdigital.com</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>_gat</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>.taggdigital.com</t>
+  </si>
+  <si>
+    <t>_ga</t>
+  </si>
+  <si>
+    <t>GA1.2.1003174585.1538366534</t>
+  </si>
+  <si>
+    <t>_gid</t>
+  </si>
+  <si>
+    <t>GA1.2.1256884372.1538366534</t>
+  </si>
+  <si>
+    <t>TestName</t>
+  </si>
+  <si>
+    <t>Enabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">annotationTest </t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">City </t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Life Republic</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>FieldName</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Rai</t>
+  </si>
+  <si>
+    <t>DecimalNumber</t>
+  </si>
+  <si>
+    <t>BooleanValue</t>
+  </si>
+  <si>
+    <t>Pankaj</t>
+  </si>
+  <si>
+    <t>Character</t>
   </si>
   <si>
     <t>Email ID</t>
   </si>
   <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>Char</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Domain</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Expiry</t>
-  </si>
-  <si>
-    <t>IsSecure</t>
-  </si>
-  <si>
-    <t>IsHttp</t>
-  </si>
-  <si>
-    <t>ci_session</t>
-  </si>
-  <si>
-    <t>890e9321fded1e1934ef58e36f769715460dd500</t>
-  </si>
-  <si>
-    <t>www.taggdigital.com</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>_gat</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>.taggdigital.com</t>
-  </si>
-  <si>
-    <t>_ga</t>
-  </si>
-  <si>
-    <t>GA1.2.1003174585.1538366534</t>
-  </si>
-  <si>
-    <t>_gid</t>
-  </si>
-  <si>
-    <t>GA1.2.1256884372.1538366534</t>
-  </si>
-  <si>
-    <t>TestName</t>
-  </si>
-  <si>
-    <t>Enabled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">annotationTest </t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">City </t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Life Republic</t>
-  </si>
-  <si>
-    <t>Pune</t>
-  </si>
-  <si>
-    <t>Maharashtra</t>
-  </si>
-  <si>
-    <t>FieldName</t>
-  </si>
-  <si>
-    <t>FirstName</t>
-  </si>
-  <si>
-    <t>LastName</t>
-  </si>
-  <si>
-    <t>Rai</t>
+    <t>TCID</t>
+  </si>
+  <si>
+    <t>TestCaseDescription</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>ClassName</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>TC001</t>
+  </si>
+  <si>
+    <t>TestCaseDescription1</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>com.testautomation.test</t>
+  </si>
+  <si>
+    <t>data1</t>
   </si>
 </sst>
 </file>
@@ -184,12 +224,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -220,12 +266,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -507,17 +555,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="7.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="22.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="4.88671875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
@@ -526,25 +577,25 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -571,15 +622,43 @@
       </c>
       <c r="H2" s="4">
         <v>43351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>123</v>
+      </c>
+      <c r="D3" s="2">
+        <v>23.89</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="4">
+        <v>43381</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{3522AD87-FE42-46DD-907B-6F66B97C044B}"/>
     <hyperlink ref="F2" r:id="rId2" xr:uid="{78F31B6A-85E6-4B43-9BBF-A81D83A9FF6F}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{105BBD5A-CA24-42BE-ADC9-8A539606793D}"/>
+    <hyperlink ref="F3" r:id="rId4" xr:uid="{5094E8EA-5C44-4ECA-9742-5643CA367A06}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -588,26 +667,29 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:D1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -615,13 +697,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -635,50 +717,50 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G5"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="40.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2">
         <v>43374.480902777781</v>
@@ -692,16 +774,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2">
         <v>43374.398078703707</v>
@@ -715,16 +797,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2">
         <v>44104.397581018522</v>
@@ -738,16 +820,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2">
         <v>43375.397581018522</v>
@@ -770,26 +852,26 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="b">
         <v>1</v>
@@ -804,26 +886,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47065F88-EA7C-41A1-B042-743105370762}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -831,11 +913,78 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE2E848-32D1-4A9B-B443-0E5734C7DD9D}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E4" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
